--- a/src/test/resources/info/informationsea/java/excel2csv/iris.xlsx
+++ b/src/test/resources/info/informationsea/java/excel2csv/iris.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Okamura\Documents\GitHub\excel2csv\src\test\resources\info\informationsea\java\excel2csv\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="19020" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="iris.csv" sheetId="1" r:id="rId1"/>
@@ -45,7 +50,8 @@
     <t>virginica</t>
   </si>
   <si>
-    <t>列1</t>
+    <t>Column 1</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -97,6 +103,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -104,7 +118,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="テーブル1" displayName="テーブル1" ref="A1:F151" totalsRowShown="0">
   <autoFilter ref="A1:F151"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="列1"/>
+    <tableColumn id="1" name="Column 1"/>
     <tableColumn id="2" name="Sepal.Length"/>
     <tableColumn id="3" name="Sepal.Width"/>
     <tableColumn id="4" name="Petal.Length"/>
@@ -439,19 +453,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="D115" sqref="D115"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="14.5" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" customWidth="1"/>
-    <col min="4" max="4" width="14.1640625" customWidth="1"/>
+    <col min="3" max="3" width="13.375" customWidth="1"/>
+    <col min="4" max="4" width="14.125" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -471,7 +485,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -491,7 +505,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -511,7 +525,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -531,7 +545,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -551,7 +565,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
@@ -571,7 +585,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -591,7 +605,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
@@ -611,7 +625,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
@@ -631,7 +645,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>9</v>
       </c>
@@ -651,7 +665,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10</v>
       </c>
@@ -671,7 +685,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>11</v>
       </c>
@@ -691,7 +705,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>12</v>
       </c>
@@ -711,7 +725,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>13</v>
       </c>
@@ -731,7 +745,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>14</v>
       </c>
@@ -751,7 +765,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>15</v>
       </c>
@@ -771,7 +785,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>16</v>
       </c>
@@ -791,7 +805,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>17</v>
       </c>
@@ -811,7 +825,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>18</v>
       </c>
@@ -831,7 +845,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>19</v>
       </c>
@@ -851,7 +865,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>20</v>
       </c>
@@ -871,7 +885,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>21</v>
       </c>
@@ -891,7 +905,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>22</v>
       </c>
@@ -911,7 +925,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>23</v>
       </c>
@@ -931,7 +945,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>24</v>
       </c>
@@ -951,7 +965,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>25</v>
       </c>
@@ -971,7 +985,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>26</v>
       </c>
@@ -991,7 +1005,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1011,7 +1025,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1031,7 +1045,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1051,7 +1065,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1071,7 +1085,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1091,7 +1105,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1111,7 +1125,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1131,7 +1145,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1151,7 +1165,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1171,7 +1185,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1191,7 +1205,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1211,7 +1225,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1231,7 +1245,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1251,7 +1265,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1271,7 +1285,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1291,7 +1305,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1311,7 +1325,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1331,7 +1345,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1351,7 +1365,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1371,7 +1385,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1391,7 +1405,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1411,7 +1425,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A49">
         <v>48</v>
       </c>
@@ -1431,7 +1445,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A50">
         <v>49</v>
       </c>
@@ -1451,7 +1465,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A51">
         <v>50</v>
       </c>
@@ -1471,7 +1485,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A52">
         <v>51</v>
       </c>
@@ -1491,7 +1505,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A53">
         <v>52</v>
       </c>
@@ -1511,7 +1525,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A54">
         <v>53</v>
       </c>
@@ -1531,7 +1545,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A55">
         <v>54</v>
       </c>
@@ -1551,7 +1565,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A56">
         <v>55</v>
       </c>
@@ -1571,7 +1585,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A57">
         <v>56</v>
       </c>
@@ -1591,7 +1605,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A58">
         <v>57</v>
       </c>
@@ -1611,7 +1625,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A59">
         <v>58</v>
       </c>
@@ -1631,7 +1645,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A60">
         <v>59</v>
       </c>
@@ -1651,7 +1665,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A61">
         <v>60</v>
       </c>
@@ -1671,7 +1685,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A62">
         <v>61</v>
       </c>
@@ -1691,7 +1705,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A63">
         <v>62</v>
       </c>
@@ -1711,7 +1725,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A64">
         <v>63</v>
       </c>
@@ -1731,7 +1745,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A65">
         <v>64</v>
       </c>
@@ -1751,7 +1765,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A66">
         <v>65</v>
       </c>
@@ -1771,7 +1785,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A67">
         <v>66</v>
       </c>
@@ -1791,7 +1805,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A68">
         <v>67</v>
       </c>
@@ -1811,7 +1825,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A69">
         <v>68</v>
       </c>
@@ -1831,7 +1845,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A70">
         <v>69</v>
       </c>
@@ -1851,7 +1865,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A71">
         <v>70</v>
       </c>
@@ -1871,7 +1885,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A72">
         <v>71</v>
       </c>
@@ -1891,7 +1905,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A73">
         <v>72</v>
       </c>
@@ -1911,7 +1925,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A74">
         <v>73</v>
       </c>
@@ -1931,7 +1945,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A75">
         <v>74</v>
       </c>
@@ -1951,7 +1965,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A76">
         <v>75</v>
       </c>
@@ -1971,7 +1985,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A77">
         <v>76</v>
       </c>
@@ -1991,7 +2005,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A78">
         <v>77</v>
       </c>
@@ -2011,7 +2025,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A79">
         <v>78</v>
       </c>
@@ -2031,7 +2045,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A80">
         <v>79</v>
       </c>
@@ -2051,7 +2065,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A81">
         <v>80</v>
       </c>
@@ -2071,7 +2085,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A82">
         <v>81</v>
       </c>
@@ -2091,7 +2105,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A83">
         <v>82</v>
       </c>
@@ -2111,7 +2125,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A84">
         <v>83</v>
       </c>
@@ -2131,7 +2145,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A85">
         <v>84</v>
       </c>
@@ -2151,7 +2165,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A86">
         <v>85</v>
       </c>
@@ -2171,7 +2185,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A87">
         <v>86</v>
       </c>
@@ -2191,7 +2205,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A88">
         <v>87</v>
       </c>
@@ -2211,7 +2225,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A89">
         <v>88</v>
       </c>
@@ -2231,7 +2245,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A90">
         <v>89</v>
       </c>
@@ -2251,7 +2265,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A91">
         <v>90</v>
       </c>
@@ -2271,7 +2285,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A92">
         <v>91</v>
       </c>
@@ -2291,7 +2305,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A93">
         <v>92</v>
       </c>
@@ -2311,7 +2325,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A94">
         <v>93</v>
       </c>
@@ -2331,7 +2345,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A95">
         <v>94</v>
       </c>
@@ -2351,7 +2365,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A96">
         <v>95</v>
       </c>
@@ -2371,7 +2385,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A97">
         <v>96</v>
       </c>
@@ -2391,7 +2405,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A98">
         <v>97</v>
       </c>
@@ -2411,7 +2425,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A99">
         <v>98</v>
       </c>
@@ -2431,7 +2445,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A100">
         <v>99</v>
       </c>
@@ -2451,7 +2465,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A101">
         <v>100</v>
       </c>
@@ -2471,7 +2485,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A102">
         <v>101</v>
       </c>
@@ -2491,7 +2505,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A103">
         <v>102</v>
       </c>
@@ -2511,7 +2525,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A104">
         <v>103</v>
       </c>
@@ -2531,7 +2545,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="105" spans="1:6">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A105">
         <v>104</v>
       </c>
@@ -2551,7 +2565,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A106">
         <v>105</v>
       </c>
@@ -2571,7 +2585,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A107">
         <v>106</v>
       </c>
@@ -2591,7 +2605,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A108">
         <v>107</v>
       </c>
@@ -2611,7 +2625,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A109">
         <v>108</v>
       </c>
@@ -2631,7 +2645,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A110">
         <v>109</v>
       </c>
@@ -2651,7 +2665,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A111">
         <v>110</v>
       </c>
@@ -2671,7 +2685,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A112">
         <v>111</v>
       </c>
@@ -2691,7 +2705,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="113" spans="1:6">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A113">
         <v>112</v>
       </c>
@@ -2711,7 +2725,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="114" spans="1:6">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A114">
         <v>113</v>
       </c>
@@ -2731,7 +2745,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="115" spans="1:6">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A115">
         <v>114</v>
       </c>
@@ -2751,7 +2765,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="116" spans="1:6">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A116">
         <v>115</v>
       </c>
@@ -2771,7 +2785,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="117" spans="1:6">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A117">
         <v>116</v>
       </c>
@@ -2791,7 +2805,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="118" spans="1:6">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A118">
         <v>117</v>
       </c>
@@ -2811,7 +2825,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="119" spans="1:6">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A119">
         <v>118</v>
       </c>
@@ -2831,7 +2845,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="120" spans="1:6">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A120">
         <v>119</v>
       </c>
@@ -2851,7 +2865,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="121" spans="1:6">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A121">
         <v>120</v>
       </c>
@@ -2871,7 +2885,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="122" spans="1:6">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A122">
         <v>121</v>
       </c>
@@ -2891,7 +2905,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="123" spans="1:6">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A123">
         <v>122</v>
       </c>
@@ -2911,7 +2925,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="124" spans="1:6">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A124">
         <v>123</v>
       </c>
@@ -2931,7 +2945,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="125" spans="1:6">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A125">
         <v>124</v>
       </c>
@@ -2951,7 +2965,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="126" spans="1:6">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A126">
         <v>125</v>
       </c>
@@ -2971,7 +2985,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="127" spans="1:6">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A127">
         <v>126</v>
       </c>
@@ -2991,7 +3005,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="128" spans="1:6">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A128">
         <v>127</v>
       </c>
@@ -3011,7 +3025,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="129" spans="1:6">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A129">
         <v>128</v>
       </c>
@@ -3031,7 +3045,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="130" spans="1:6">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A130">
         <v>129</v>
       </c>
@@ -3051,7 +3065,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="131" spans="1:6">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A131">
         <v>130</v>
       </c>
@@ -3071,7 +3085,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="132" spans="1:6">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A132">
         <v>131</v>
       </c>
@@ -3091,7 +3105,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="133" spans="1:6">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A133">
         <v>132</v>
       </c>
@@ -3111,7 +3125,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="134" spans="1:6">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A134">
         <v>133</v>
       </c>
@@ -3131,7 +3145,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="135" spans="1:6">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A135">
         <v>134</v>
       </c>
@@ -3151,7 +3165,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="136" spans="1:6">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A136">
         <v>135</v>
       </c>
@@ -3171,7 +3185,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="137" spans="1:6">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A137">
         <v>136</v>
       </c>
@@ -3191,7 +3205,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="138" spans="1:6">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A138">
         <v>137</v>
       </c>
@@ -3211,7 +3225,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="139" spans="1:6">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A139">
         <v>138</v>
       </c>
@@ -3231,7 +3245,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="140" spans="1:6">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A140">
         <v>139</v>
       </c>
@@ -3251,7 +3265,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="141" spans="1:6">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A141">
         <v>140</v>
       </c>
@@ -3271,7 +3285,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="142" spans="1:6">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A142">
         <v>141</v>
       </c>
@@ -3291,7 +3305,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="143" spans="1:6">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A143">
         <v>142</v>
       </c>
@@ -3311,7 +3325,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="144" spans="1:6">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A144">
         <v>143</v>
       </c>
@@ -3331,7 +3345,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="145" spans="1:6">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A145">
         <v>144</v>
       </c>
@@ -3351,7 +3365,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="146" spans="1:6">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A146">
         <v>145</v>
       </c>
@@ -3371,7 +3385,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="147" spans="1:6">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A147">
         <v>146</v>
       </c>
@@ -3391,7 +3405,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="148" spans="1:6">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A148">
         <v>147</v>
       </c>
@@ -3411,7 +3425,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="149" spans="1:6">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A149">
         <v>148</v>
       </c>
@@ -3431,7 +3445,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="150" spans="1:6">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A150">
         <v>149</v>
       </c>
@@ -3451,7 +3465,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="151" spans="1:6">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A151">
         <v>150</v>
       </c>
